--- a/integration/excelInput.xlsx
+++ b/integration/excelInput.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TE\Accademy\javaAcademy052022\integration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3BCC0D73-650F-4E48-AD92-E7E736D1D20F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC0AD84A-0FC5-4A49-BBA4-51C251883556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5918E2F3-FF9A-4E50-9A4E-4F086027E78A}"/>
+    <workbookView xWindow="2775" yWindow="4935" windowWidth="12240" windowHeight="7935" xr2:uid="{5918E2F3-FF9A-4E50-9A4E-4F086027E78A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -68,6 +69,21 @@
   </si>
   <si>
     <t>OpenSource</t>
+  </si>
+  <si>
+    <t>Alessandro</t>
+  </si>
+  <si>
+    <t>Riva</t>
+  </si>
+  <si>
+    <t>alessandro.riva@techedgegroup.com</t>
+  </si>
+  <si>
+    <t>Spring Boot</t>
+  </si>
+  <si>
+    <t>Spring Boot-Seconda parte</t>
   </si>
 </sst>
 </file>
@@ -107,10 +123,82 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -120,11 +208,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -442,9 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09661793-2D0F-42B5-ACFB-9E9E612F1C25}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -454,21 +544,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -476,25 +566,25 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="2">
-        <v>44662</v>
+      <c r="C5" s="3">
+        <v>44694</v>
       </c>
     </row>
   </sheetData>
@@ -504,4 +594,82 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F3A8316-FF3C-4EC1-8ABF-EDA5EADCF0BE}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="4">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3">
+        <v>44690</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3FAE816B-50DE-4E2E-BDC4-A99091789C41}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>